--- a/Wilson Rides/Data Guide.xlsx
+++ b/Wilson Rides/Data Guide.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmccall\Documents\GIT\Aging-and-Disability\Wilson Rides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D77FB4-7CDE-4D2B-A9E1-2B7878548CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D9F498-69BB-4EBC-BDE0-C57160316C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0405D0AF-57D6-44C6-BB1C-249A29BD168C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="B10051_005E" localSheetId="0">Sheet1!$E$63</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="353">
   <si>
     <t>ID</t>
   </si>
@@ -73,141 +76,6 @@
     <t>Sex by Age</t>
   </si>
   <si>
-    <t>Total Male</t>
-  </si>
-  <si>
-    <t>age_total_male</t>
-  </si>
-  <si>
-    <t>B01001_002E</t>
-  </si>
-  <si>
-    <t>Male Under 5</t>
-  </si>
-  <si>
-    <t>age_m_u5</t>
-  </si>
-  <si>
-    <t>B01001_003E</t>
-  </si>
-  <si>
-    <t>Male 5 to 9</t>
-  </si>
-  <si>
-    <t>age_m_5to9</t>
-  </si>
-  <si>
-    <t>B01001_004E</t>
-  </si>
-  <si>
-    <t>Male 10 to 14</t>
-  </si>
-  <si>
-    <t>age_m_10to14</t>
-  </si>
-  <si>
-    <t>B01001_005E</t>
-  </si>
-  <si>
-    <t>Male 15 to 17</t>
-  </si>
-  <si>
-    <t>age_m_15to17</t>
-  </si>
-  <si>
-    <t>B01001_006E</t>
-  </si>
-  <si>
-    <t>Male 18 and 19</t>
-  </si>
-  <si>
-    <t>age_m_18to19</t>
-  </si>
-  <si>
-    <t>B01001_007E</t>
-  </si>
-  <si>
-    <t>Male 20</t>
-  </si>
-  <si>
-    <t>age_m_20</t>
-  </si>
-  <si>
-    <t>B01001_008E</t>
-  </si>
-  <si>
-    <t>Male 21</t>
-  </si>
-  <si>
-    <t>age_m_21</t>
-  </si>
-  <si>
-    <t>B01001_009E</t>
-  </si>
-  <si>
-    <t>Male 22 to 24</t>
-  </si>
-  <si>
-    <t>age_m_22to24</t>
-  </si>
-  <si>
-    <t>B01001_010E</t>
-  </si>
-  <si>
-    <t>Male 25 to 29</t>
-  </si>
-  <si>
-    <t>age_m_25to29</t>
-  </si>
-  <si>
-    <t>B01001_011E</t>
-  </si>
-  <si>
-    <t>Male 30 to 34</t>
-  </si>
-  <si>
-    <t>age_m_30to34</t>
-  </si>
-  <si>
-    <t>B01001_012E</t>
-  </si>
-  <si>
-    <t>Male 35 to 39</t>
-  </si>
-  <si>
-    <t>age_m_35to39</t>
-  </si>
-  <si>
-    <t>B01001_013E</t>
-  </si>
-  <si>
-    <t>Male 40 to 44</t>
-  </si>
-  <si>
-    <t>age_m_40to44</t>
-  </si>
-  <si>
-    <t>B01001_014E</t>
-  </si>
-  <si>
-    <t>Male 45 to 49</t>
-  </si>
-  <si>
-    <t>age_m_45to49</t>
-  </si>
-  <si>
-    <t>B01001_015E</t>
-  </si>
-  <si>
-    <t>Male 50 to 54</t>
-  </si>
-  <si>
-    <t>age_m_50to54</t>
-  </si>
-  <si>
-    <t>B01001_016E</t>
-  </si>
-  <si>
     <t>Male 55 to 59</t>
   </si>
   <si>
@@ -289,141 +157,6 @@
     <t>B01001_025E</t>
   </si>
   <si>
-    <t>Female Total</t>
-  </si>
-  <si>
-    <t>age_total_female</t>
-  </si>
-  <si>
-    <t>B01001_026E</t>
-  </si>
-  <si>
-    <t>Female Under 5</t>
-  </si>
-  <si>
-    <t>age_f_u5</t>
-  </si>
-  <si>
-    <t>B01001_027E</t>
-  </si>
-  <si>
-    <t>Female 5 to 9</t>
-  </si>
-  <si>
-    <t>age_f_5to9</t>
-  </si>
-  <si>
-    <t>B01001_028E</t>
-  </si>
-  <si>
-    <t>Female 10 to 14</t>
-  </si>
-  <si>
-    <t>age_f_10to14</t>
-  </si>
-  <si>
-    <t>B01001_029E</t>
-  </si>
-  <si>
-    <t>Female 15 to 17</t>
-  </si>
-  <si>
-    <t>age_f_15to17</t>
-  </si>
-  <si>
-    <t>B01001_030E</t>
-  </si>
-  <si>
-    <t>Female 18 and 19</t>
-  </si>
-  <si>
-    <t>age_f_18to19</t>
-  </si>
-  <si>
-    <t>B01001_031E</t>
-  </si>
-  <si>
-    <t>Female 20</t>
-  </si>
-  <si>
-    <t>age_f_20</t>
-  </si>
-  <si>
-    <t>B01001_032E</t>
-  </si>
-  <si>
-    <t>Female 21</t>
-  </si>
-  <si>
-    <t>age_f_21</t>
-  </si>
-  <si>
-    <t>B01001_033E</t>
-  </si>
-  <si>
-    <t>Female 22 to 24</t>
-  </si>
-  <si>
-    <t>age_f_22to24</t>
-  </si>
-  <si>
-    <t>B01001_034E</t>
-  </si>
-  <si>
-    <t>Female 25 to 29</t>
-  </si>
-  <si>
-    <t>age_f_25to29</t>
-  </si>
-  <si>
-    <t>B01001_035E</t>
-  </si>
-  <si>
-    <t>Female 30 to 34</t>
-  </si>
-  <si>
-    <t>age_f_30to34</t>
-  </si>
-  <si>
-    <t>B01001_036E</t>
-  </si>
-  <si>
-    <t>Female 35 to 39</t>
-  </si>
-  <si>
-    <t>age_f_35to39</t>
-  </si>
-  <si>
-    <t>B01001_037E</t>
-  </si>
-  <si>
-    <t>Female 40 to 44</t>
-  </si>
-  <si>
-    <t>age_f_40to44</t>
-  </si>
-  <si>
-    <t>B01001_038E</t>
-  </si>
-  <si>
-    <t>Female 45 to 49</t>
-  </si>
-  <si>
-    <t>age_f_45to49</t>
-  </si>
-  <si>
-    <t>B01001_039E</t>
-  </si>
-  <si>
-    <t>Female 50 to 54</t>
-  </si>
-  <si>
-    <t>age_f_50to54</t>
-  </si>
-  <si>
-    <t>B01001_040E</t>
-  </si>
-  <si>
     <t>Female 55 to 59</t>
   </si>
   <si>
@@ -670,9 +403,6 @@
     <t>Ed Attainment Male 65+  Bachelor's Degree</t>
   </si>
   <si>
-    <t>Ed Attainment Male 65+  Graudate or Professional Degree</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ed Attainment Females 65+ </t>
   </si>
   <si>
@@ -694,9 +424,6 @@
     <t>Ed Attainment Female 65+  Bachelor's Degree</t>
   </si>
   <si>
-    <t>Ed Attainment Female 65+  Graudate or Professional Degree</t>
-  </si>
-  <si>
     <t>B15001_001E</t>
   </si>
   <si>
@@ -790,7 +517,586 @@
     <t>B10051_002E</t>
   </si>
   <si>
-    <t>Total Grandparent Living With Grandchildren by Responsibility and Presence of Parent by Age of Grandparent Series</t>
+    <t>B10051_005E</t>
+  </si>
+  <si>
+    <t>Total Grandparent Living with Grandchildren by Responsibility for Own Grandchildren</t>
+  </si>
+  <si>
+    <t>Grandparent Living with Grandchildren Responsible for Own Grandchildren Under 18</t>
+  </si>
+  <si>
+    <t>Grandparent Living with Grandchildren Householder or Spouse with no Parent of Grandchildren Present 60 and Over</t>
+  </si>
+  <si>
+    <t>B10051_001E</t>
+  </si>
+  <si>
+    <t>Ed Attainment Male 65+  Graduate or Professional Degree</t>
+  </si>
+  <si>
+    <t>Ed Attainment Female 65+  Graduate or Professional Degree</t>
+  </si>
+  <si>
+    <t>Educational Attainment</t>
+  </si>
+  <si>
+    <t>ed_total_series</t>
+  </si>
+  <si>
+    <t>ed_m65+</t>
+  </si>
+  <si>
+    <t>ed_m65+_less9thgrade</t>
+  </si>
+  <si>
+    <t>ed_m65+9thto12th</t>
+  </si>
+  <si>
+    <t>ed_m65+_highschoolgradequivalency</t>
+  </si>
+  <si>
+    <t>ed_m65+_somecollegenodegree</t>
+  </si>
+  <si>
+    <t>ed_m65+_graduateorprofessionaldegree</t>
+  </si>
+  <si>
+    <t>ed_m65+_associates</t>
+  </si>
+  <si>
+    <t>ed_m65+_bachelors</t>
+  </si>
+  <si>
+    <t>ed_f65+</t>
+  </si>
+  <si>
+    <t>ed_f65+_less9thgrade</t>
+  </si>
+  <si>
+    <t>ed_f65+9thto12th</t>
+  </si>
+  <si>
+    <t>ed_f65+_highschoolgradequivalency</t>
+  </si>
+  <si>
+    <t>ed_f65+_somecollegenodegree</t>
+  </si>
+  <si>
+    <t>ed_f65+_associates</t>
+  </si>
+  <si>
+    <t>ed_f65+_bachelors</t>
+  </si>
+  <si>
+    <t>ed_f65+_graduateorprofessionaldegree</t>
+  </si>
+  <si>
+    <t>livealone_total65+_series</t>
+  </si>
+  <si>
+    <t>livealone_total65+_inhh</t>
+  </si>
+  <si>
+    <t>livealone_m65+</t>
+  </si>
+  <si>
+    <t>livealone_f65+</t>
+  </si>
+  <si>
+    <t>vehicles_total_byage_series</t>
+  </si>
+  <si>
+    <t>Live Alone</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>Grandchildren</t>
+  </si>
+  <si>
+    <t>vehicles_ownerocc_none</t>
+  </si>
+  <si>
+    <t>vehicles_renterocc_none</t>
+  </si>
+  <si>
+    <t>grandparent_total_responsibilityforgrandchild_series</t>
+  </si>
+  <si>
+    <t>grandparent_responsibleforgrandchild</t>
+  </si>
+  <si>
+    <t>grandparent_resposibleforgrandchild_noparent_60+</t>
+  </si>
+  <si>
+    <t>Total Age by Presence of a Computer and Types of Internet Subscription Series</t>
+  </si>
+  <si>
+    <t>Computer Age 65+ Total</t>
+  </si>
+  <si>
+    <t>Computer Age 65+ Has a Computer</t>
+  </si>
+  <si>
+    <t>Computer Age 65+ Has a Computer with Dial-Up Internet Subscription Alone</t>
+  </si>
+  <si>
+    <t>Computer Age 65+ Has a Computer with a Broadband Internet Subscription</t>
+  </si>
+  <si>
+    <t>Computer Age 65+ Has a Computer without an Internet Subscription</t>
+  </si>
+  <si>
+    <t>Computer Age 65+ No Computer</t>
+  </si>
+  <si>
+    <t>computer_65+_total</t>
+  </si>
+  <si>
+    <t>computer_total_byage_series</t>
+  </si>
+  <si>
+    <t>computer_65+_nocomputer</t>
+  </si>
+  <si>
+    <t>computer_65+_computer</t>
+  </si>
+  <si>
+    <t>computer_65+_computer_dialupalone</t>
+  </si>
+  <si>
+    <t>computer_65+_computer_broadband</t>
+  </si>
+  <si>
+    <t>computer_65+_computer_nointernet</t>
+  </si>
+  <si>
+    <t>B25093_001E</t>
+  </si>
+  <si>
+    <t>B28005_001E</t>
+  </si>
+  <si>
+    <t>B28005_014E</t>
+  </si>
+  <si>
+    <t>B28005_015E</t>
+  </si>
+  <si>
+    <t>B28005_016E</t>
+  </si>
+  <si>
+    <t>B28005_017E</t>
+  </si>
+  <si>
+    <t>B28005_018E</t>
+  </si>
+  <si>
+    <t>B28005_019E</t>
+  </si>
+  <si>
+    <t>B25072_001E</t>
+  </si>
+  <si>
+    <t>Housing Cost 65+ Gross Rent Total</t>
+  </si>
+  <si>
+    <t>Housing Cost 65+ Gross Rent 30 to 34.9% of Household Income</t>
+  </si>
+  <si>
+    <t>Housing Cost 65+ Gross Rent 35% or More of Household Income</t>
+  </si>
+  <si>
+    <t>B25072_023E</t>
+  </si>
+  <si>
+    <t>B25072_027E</t>
+  </si>
+  <si>
+    <t>B25072_028E</t>
+  </si>
+  <si>
+    <t>Total Age of Householder by Selected Montly Owner Costs as Percentage of Household Income in Past 12 Months</t>
+  </si>
+  <si>
+    <t>Total Age of Householder by Gross Rent as a Percentage of Household Income in Past 12 Months</t>
+  </si>
+  <si>
+    <t>B25093_023E</t>
+  </si>
+  <si>
+    <t>Housing Cost 65+ Owner Cost Total</t>
+  </si>
+  <si>
+    <t>B25093_027E</t>
+  </si>
+  <si>
+    <t>B25093_028E</t>
+  </si>
+  <si>
+    <t>Housing Cost 65+ Owner Cost 30 to 34.9% of Household Income</t>
+  </si>
+  <si>
+    <t>Housing Cost 65+ Owner Cost 35% or More of Household Income</t>
+  </si>
+  <si>
+    <t>housing_total_ownercosts</t>
+  </si>
+  <si>
+    <t>housing_65+total_ownercosts</t>
+  </si>
+  <si>
+    <t>housing_65+30to34.9%_ownercosts</t>
+  </si>
+  <si>
+    <t>housing_65+35%ormore_ownercosts</t>
+  </si>
+  <si>
+    <t>housing_total_grossrent</t>
+  </si>
+  <si>
+    <t>housing_65+total_grossrent</t>
+  </si>
+  <si>
+    <t>housing_65+30to34.9%_grossrent</t>
+  </si>
+  <si>
+    <t>housing_65+35%ormore_grossrent</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Housing Burden</t>
+  </si>
+  <si>
+    <t>Geographic Mobility</t>
+  </si>
+  <si>
+    <t>Total Geographic Mobility in the Past Year by Age Series</t>
+  </si>
+  <si>
+    <t>Geographic Mobility Past Year Age 55 to 59 Total</t>
+  </si>
+  <si>
+    <t>Geographic Mobility Past Year Age 60 to 64 Total</t>
+  </si>
+  <si>
+    <t>Geographic Mobility Past Year Age 65 to 69 Total</t>
+  </si>
+  <si>
+    <t>Geographic Mobility Past Year Age 70 to74 Total</t>
+  </si>
+  <si>
+    <t>Geographic Mobility Past Year Age 75+ Total</t>
+  </si>
+  <si>
+    <t>B07001_001E</t>
+  </si>
+  <si>
+    <t>B07001_012E</t>
+  </si>
+  <si>
+    <t>B07001_013E</t>
+  </si>
+  <si>
+    <t>B07001_014E</t>
+  </si>
+  <si>
+    <t>B07001_015E</t>
+  </si>
+  <si>
+    <t>B07001_016E</t>
+  </si>
+  <si>
+    <t>B07001_017E</t>
+  </si>
+  <si>
+    <t>Geographic Mobility Total Same House One Year Ago</t>
+  </si>
+  <si>
+    <t>B07001_028E</t>
+  </si>
+  <si>
+    <t>B07001_029E</t>
+  </si>
+  <si>
+    <t>B07001_030E</t>
+  </si>
+  <si>
+    <t>B07001_031E</t>
+  </si>
+  <si>
+    <t>B07001_032E</t>
+  </si>
+  <si>
+    <t>Geo Mobility 55 to 59 Same House One Year Ago</t>
+  </si>
+  <si>
+    <t>Geo Mobility 60 to 64 Same House One Year Ago</t>
+  </si>
+  <si>
+    <t>Geo Mobility 65 to 69 Same House One Year Ago</t>
+  </si>
+  <si>
+    <t>Geo Mobility 70 to 74 Same House One Year Ago</t>
+  </si>
+  <si>
+    <t>Geo Mobility 75+ Same House One Year Ago</t>
+  </si>
+  <si>
+    <t>B07001_033E</t>
+  </si>
+  <si>
+    <t>Geographic Mobility Total Moved Within Same County</t>
+  </si>
+  <si>
+    <t>Geo Mobility 55 to 59 Moved Within Same County</t>
+  </si>
+  <si>
+    <t>Geo Mobility 60 to 64 Moved Within Same County</t>
+  </si>
+  <si>
+    <t>Geo Mobility 65 to 69 Moved Within Same County</t>
+  </si>
+  <si>
+    <t>Geo Mobility 70 to 74 Moved Within Same County</t>
+  </si>
+  <si>
+    <t>Geo Mobility 75+ Moved Within Same County</t>
+  </si>
+  <si>
+    <t>B07001_044E</t>
+  </si>
+  <si>
+    <t>B07001_045E</t>
+  </si>
+  <si>
+    <t>B07001_046E</t>
+  </si>
+  <si>
+    <t>B07001_047E</t>
+  </si>
+  <si>
+    <t>B07001_048E</t>
+  </si>
+  <si>
+    <t>B07001_049E</t>
+  </si>
+  <si>
+    <t>Geographic Mobility Moved from Different County Within Same State</t>
+  </si>
+  <si>
+    <t>B07001_060E</t>
+  </si>
+  <si>
+    <t>Geo Mobility 55 to 59 Moved from Different County in Same State</t>
+  </si>
+  <si>
+    <t>Geo Mobility 60 to 64 Moved from Different County in Same State</t>
+  </si>
+  <si>
+    <t>Geo Mobility 65 to 69 Moved from Different County in Same State</t>
+  </si>
+  <si>
+    <t>Geo Mobility 70 to 74 Moved from Different County in Same State</t>
+  </si>
+  <si>
+    <t>Geo Mobility 75+ Moved from Different County in Same State</t>
+  </si>
+  <si>
+    <t>B07001_061E</t>
+  </si>
+  <si>
+    <t>B07001_062E</t>
+  </si>
+  <si>
+    <t>B07001_063E</t>
+  </si>
+  <si>
+    <t>B07001_064E</t>
+  </si>
+  <si>
+    <t>B07001_065E</t>
+  </si>
+  <si>
+    <t>Geographic Mobility Moved From Different State</t>
+  </si>
+  <si>
+    <t>Geo Mobility 55 to 59 Moved from Different State</t>
+  </si>
+  <si>
+    <t>Geo Mobility 60 to 64 Moved from Different State</t>
+  </si>
+  <si>
+    <t>Geo Mobility 65 to 69 Moved from Different State</t>
+  </si>
+  <si>
+    <t>Geo Mobility 70 to 74 Moved from Different State</t>
+  </si>
+  <si>
+    <t>Geo Mobility 75+ Moved from Different State</t>
+  </si>
+  <si>
+    <t>B07001_076E</t>
+  </si>
+  <si>
+    <t>B07001_077E</t>
+  </si>
+  <si>
+    <t>B07001_078E</t>
+  </si>
+  <si>
+    <t>B07001_079E</t>
+  </si>
+  <si>
+    <t>B07001_080E</t>
+  </si>
+  <si>
+    <t>B07001_081E</t>
+  </si>
+  <si>
+    <t>Geographic Mobility Moved from Abroad</t>
+  </si>
+  <si>
+    <t>Geo Mobility 55 to 59 Moved from Abroad</t>
+  </si>
+  <si>
+    <t>Geo Mobility 60 to 64 Moved from Abroad</t>
+  </si>
+  <si>
+    <t>Geo Mobility 65 to 69 Moved from Abroad</t>
+  </si>
+  <si>
+    <t>Geo Mobility 70 to 74 Moved from Abroad</t>
+  </si>
+  <si>
+    <t>Geo Mobility 75+ Moved from Abroad</t>
+  </si>
+  <si>
+    <t>B07001_092E</t>
+  </si>
+  <si>
+    <t>B07001_093E</t>
+  </si>
+  <si>
+    <t>B07001_094E</t>
+  </si>
+  <si>
+    <t>B07001_095E</t>
+  </si>
+  <si>
+    <t>B07001_096E</t>
+  </si>
+  <si>
+    <t>geo_total_series</t>
+  </si>
+  <si>
+    <t>geo_55to59_total</t>
+  </si>
+  <si>
+    <t>geo_60to64_total</t>
+  </si>
+  <si>
+    <t>geo_65to69_total</t>
+  </si>
+  <si>
+    <t>geo_70to74_total</t>
+  </si>
+  <si>
+    <t>geo_75+_total</t>
+  </si>
+  <si>
+    <t>geo_samehouse_total</t>
+  </si>
+  <si>
+    <t>geo_55to59_samehouse</t>
+  </si>
+  <si>
+    <t>geo_60to64_samehouse</t>
+  </si>
+  <si>
+    <t>geo_70to74_samehouse</t>
+  </si>
+  <si>
+    <t>geo_65to69_samehouse</t>
+  </si>
+  <si>
+    <t>geo_75+_samehouse</t>
+  </si>
+  <si>
+    <t>geo_movedsamecounty_total</t>
+  </si>
+  <si>
+    <t>geo_55to59_movedsamecounty</t>
+  </si>
+  <si>
+    <t>geo_60to64_movedsamecounty</t>
+  </si>
+  <si>
+    <t>geo_65to69_movedsamecounty</t>
+  </si>
+  <si>
+    <t>geo_70to74_movedsamecounty</t>
+  </si>
+  <si>
+    <t>geo_75+_movedsamecounty</t>
+  </si>
+  <si>
+    <t>geo_moveddifferentcountysamestate_total</t>
+  </si>
+  <si>
+    <t>geo_55to59_moveddifferentcountysamestate</t>
+  </si>
+  <si>
+    <t>geo_60to64_moveddifferentcountysamestate</t>
+  </si>
+  <si>
+    <t>geo_65to69_moveddifferentcountysamestate</t>
+  </si>
+  <si>
+    <t>geo_70to74_moveddifferentcountysamestate</t>
+  </si>
+  <si>
+    <t>geo_75+_moveddifferentcountysamestate</t>
+  </si>
+  <si>
+    <t>geo_moveddifferentstate_total</t>
+  </si>
+  <si>
+    <t>geo_55to59_moveddifferentstate</t>
+  </si>
+  <si>
+    <t>geo_60to64_moveddifferentstate</t>
+  </si>
+  <si>
+    <t>geo_65to69_moveddifferentstate</t>
+  </si>
+  <si>
+    <t>geo_70to74_moveddifferentstate</t>
+  </si>
+  <si>
+    <t>geo_75+_moveddifferentstate</t>
+  </si>
+  <si>
+    <t>geo_movedabroad_total</t>
+  </si>
+  <si>
+    <t>geo_55to59_movedabroad</t>
+  </si>
+  <si>
+    <t>geo_60to64_movedabroad</t>
+  </si>
+  <si>
+    <t>geo_65to69_movedabroad</t>
+  </si>
+  <si>
+    <t>geo_70to74_movedabroad</t>
+  </si>
+  <si>
+    <t>geo_75+_movedabroad</t>
   </si>
 </sst>
 </file>
@@ -1157,17 +1463,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E928985-CBB8-499D-B847-9B7B73480E5B}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="106.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1534,16 +1840,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1551,16 +1857,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1568,16 +1874,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1585,16 +1891,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1602,16 +1908,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" t="s">
         <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1619,16 +1925,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1636,16 +1942,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1653,16 +1959,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
         <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1670,16 +1976,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
         <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1687,16 +1993,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1704,16 +2010,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,16 +2027,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1741,13 +2047,13 @@
         <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1755,16 +2061,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1772,13 +2078,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
         <v>110</v>
@@ -1789,16 +2095,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1809,13 +2115,13 @@
         <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1823,16 +2129,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1840,16 +2146,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1857,16 +2163,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,16 +2180,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E42" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1891,16 +2197,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E43" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1908,16 +2214,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1925,16 +2231,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" t="s">
         <v>136</v>
-      </c>
-      <c r="D45" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1942,16 +2248,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1959,16 +2265,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1976,16 +2282,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1993,16 +2299,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="D49" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2010,16 +2316,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2027,430 +2333,1092 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" t="s">
+        <v>189</v>
+      </c>
+      <c r="E57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" t="s">
         <v>153</v>
       </c>
-      <c r="C51" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" t="s">
+        <v>242</v>
+      </c>
+      <c r="E64" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" t="s">
+        <v>242</v>
+      </c>
+      <c r="E65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" t="s">
+        <v>209</v>
+      </c>
+      <c r="D68" t="s">
+        <v>242</v>
+      </c>
+      <c r="E68" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
         <v>202</v>
       </c>
-      <c r="C52" t="s">
-        <v>158</v>
-      </c>
-      <c r="D52" t="s">
-        <v>156</v>
-      </c>
-      <c r="E52" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" t="s">
-        <v>156</v>
-      </c>
-      <c r="E54" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>173</v>
-      </c>
-      <c r="C55" t="s">
-        <v>163</v>
-      </c>
-      <c r="D55" t="s">
-        <v>156</v>
-      </c>
-      <c r="E55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" t="s">
-        <v>165</v>
-      </c>
-      <c r="D56" t="s">
-        <v>156</v>
-      </c>
-      <c r="E56" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57" t="s">
-        <v>166</v>
-      </c>
-      <c r="D57" t="s">
-        <v>156</v>
-      </c>
-      <c r="E57" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>176</v>
-      </c>
-      <c r="C58" t="s">
-        <v>167</v>
-      </c>
-      <c r="D58" t="s">
-        <v>156</v>
-      </c>
-      <c r="E58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>201</v>
-      </c>
-      <c r="C59" t="s">
-        <v>180</v>
-      </c>
-      <c r="D59" t="s">
-        <v>188</v>
-      </c>
-      <c r="E59" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>178</v>
-      </c>
-      <c r="C60" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" t="s">
-        <v>188</v>
-      </c>
-      <c r="E60" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>189</v>
-      </c>
-      <c r="C61" t="s">
-        <v>182</v>
-      </c>
-      <c r="D61" t="s">
-        <v>188</v>
-      </c>
-      <c r="E61" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>190</v>
-      </c>
-      <c r="C62" t="s">
-        <v>183</v>
-      </c>
-      <c r="D62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E62" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>191</v>
-      </c>
-      <c r="C63" t="s">
-        <v>184</v>
-      </c>
-      <c r="D63" t="s">
-        <v>188</v>
-      </c>
-      <c r="E63" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>192</v>
-      </c>
-      <c r="C64" t="s">
-        <v>185</v>
-      </c>
-      <c r="D64" t="s">
-        <v>188</v>
-      </c>
-      <c r="E64" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>193</v>
-      </c>
-      <c r="C65" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" t="s">
-        <v>188</v>
-      </c>
-      <c r="E65" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>194</v>
-      </c>
-      <c r="C66" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" t="s">
-        <v>188</v>
-      </c>
-      <c r="E66" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="C69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
         <v>203</v>
       </c>
-      <c r="E67" t="s">
+      <c r="C70" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" t="s">
+        <v>243</v>
+      </c>
+      <c r="E71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" t="s">
+        <v>235</v>
+      </c>
+      <c r="D72" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" t="s">
+        <v>236</v>
+      </c>
+      <c r="D73" t="s">
+        <v>243</v>
+      </c>
+      <c r="E73" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" t="s">
+        <v>238</v>
+      </c>
+      <c r="D75" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>204</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C76" t="s">
+        <v>239</v>
+      </c>
+      <c r="D76" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>205</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C77" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77" t="s">
+        <v>243</v>
+      </c>
+      <c r="E77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>206</v>
-      </c>
-      <c r="E70" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>207</v>
-      </c>
-      <c r="E71" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>208</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C78" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78" t="s">
+        <v>243</v>
+      </c>
+      <c r="E78" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>209</v>
-      </c>
-      <c r="E73" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>210</v>
-      </c>
-      <c r="E74" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>211</v>
-      </c>
-      <c r="E75" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>212</v>
-      </c>
-      <c r="E76" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>213</v>
-      </c>
-      <c r="E77" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>214</v>
-      </c>
-      <c r="E78" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
       <c r="B79" t="s">
-        <v>215</v>
+        <v>245</v>
+      </c>
+      <c r="C79" t="s">
+        <v>317</v>
+      </c>
+      <c r="D79" t="s">
+        <v>244</v>
       </c>
       <c r="E79" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>246</v>
+      </c>
+      <c r="C80" t="s">
+        <v>318</v>
+      </c>
+      <c r="D80" t="s">
+        <v>244</v>
       </c>
       <c r="E80" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>247</v>
+      </c>
+      <c r="C81" t="s">
+        <v>319</v>
+      </c>
+      <c r="D81" t="s">
+        <v>244</v>
       </c>
       <c r="E81" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
       <c r="B82" t="s">
-        <v>218</v>
+        <v>248</v>
+      </c>
+      <c r="C82" t="s">
+        <v>320</v>
+      </c>
+      <c r="D82" t="s">
+        <v>244</v>
       </c>
       <c r="E82" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
       <c r="B83" t="s">
-        <v>219</v>
+        <v>249</v>
+      </c>
+      <c r="C83" t="s">
+        <v>321</v>
+      </c>
+      <c r="D83" t="s">
+        <v>244</v>
       </c>
       <c r="E83" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
       <c r="B84" t="s">
-        <v>238</v>
+        <v>250</v>
+      </c>
+      <c r="C84" t="s">
+        <v>322</v>
+      </c>
+      <c r="D84" t="s">
+        <v>244</v>
       </c>
       <c r="E84" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>258</v>
+      </c>
+      <c r="C85" t="s">
+        <v>323</v>
+      </c>
+      <c r="D85" t="s">
+        <v>244</v>
       </c>
       <c r="E85" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
       <c r="B86" t="s">
-        <v>240</v>
+        <v>264</v>
+      </c>
+      <c r="C86" t="s">
+        <v>324</v>
+      </c>
+      <c r="D86" t="s">
+        <v>244</v>
       </c>
       <c r="E86" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
       <c r="B87" t="s">
-        <v>241</v>
+        <v>265</v>
+      </c>
+      <c r="C87" t="s">
+        <v>325</v>
+      </c>
+      <c r="D87" t="s">
+        <v>244</v>
       </c>
       <c r="E87" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>266</v>
+      </c>
+      <c r="C88" t="s">
+        <v>327</v>
+      </c>
+      <c r="D88" t="s">
+        <v>244</v>
       </c>
       <c r="E88" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>267</v>
+      </c>
+      <c r="C89" t="s">
+        <v>326</v>
+      </c>
+      <c r="D89" t="s">
+        <v>244</v>
       </c>
       <c r="E89" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
       <c r="B90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" t="s">
+        <v>328</v>
+      </c>
+      <c r="D90" t="s">
         <v>244</v>
       </c>
       <c r="E90" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
       <c r="B91" t="s">
-        <v>251</v>
+        <v>270</v>
+      </c>
+      <c r="C91" t="s">
+        <v>329</v>
+      </c>
+      <c r="D91" t="s">
+        <v>244</v>
       </c>
       <c r="E91" t="s">
-        <v>250</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>271</v>
+      </c>
+      <c r="C92" t="s">
+        <v>330</v>
+      </c>
+      <c r="D92" t="s">
+        <v>244</v>
+      </c>
+      <c r="E92" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>272</v>
+      </c>
+      <c r="C93" t="s">
+        <v>331</v>
+      </c>
+      <c r="D93" t="s">
+        <v>244</v>
+      </c>
+      <c r="E93" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" t="s">
+        <v>332</v>
+      </c>
+      <c r="D94" t="s">
+        <v>244</v>
+      </c>
+      <c r="E94" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>274</v>
+      </c>
+      <c r="C95" t="s">
+        <v>333</v>
+      </c>
+      <c r="D95" t="s">
+        <v>244</v>
+      </c>
+      <c r="E95" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" t="s">
+        <v>334</v>
+      </c>
+      <c r="D96" t="s">
+        <v>244</v>
+      </c>
+      <c r="E96" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" t="s">
+        <v>335</v>
+      </c>
+      <c r="D97" t="s">
+        <v>244</v>
+      </c>
+      <c r="E97" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" t="s">
+        <v>336</v>
+      </c>
+      <c r="D98" t="s">
+        <v>244</v>
+      </c>
+      <c r="E98" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>285</v>
+      </c>
+      <c r="C99" t="s">
+        <v>337</v>
+      </c>
+      <c r="D99" t="s">
+        <v>244</v>
+      </c>
+      <c r="E99" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>286</v>
+      </c>
+      <c r="C100" t="s">
+        <v>338</v>
+      </c>
+      <c r="D100" t="s">
+        <v>244</v>
+      </c>
+      <c r="E100" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>287</v>
+      </c>
+      <c r="C101" t="s">
+        <v>339</v>
+      </c>
+      <c r="D101" t="s">
+        <v>244</v>
+      </c>
+      <c r="E101" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>288</v>
+      </c>
+      <c r="C102" t="s">
+        <v>340</v>
+      </c>
+      <c r="D102" t="s">
+        <v>244</v>
+      </c>
+      <c r="E102" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>294</v>
+      </c>
+      <c r="C103" t="s">
+        <v>341</v>
+      </c>
+      <c r="D103" t="s">
+        <v>244</v>
+      </c>
+      <c r="E103" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>295</v>
+      </c>
+      <c r="C104" t="s">
+        <v>342</v>
+      </c>
+      <c r="D104" t="s">
+        <v>244</v>
+      </c>
+      <c r="E104" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>296</v>
+      </c>
+      <c r="C105" t="s">
+        <v>343</v>
+      </c>
+      <c r="D105" t="s">
+        <v>244</v>
+      </c>
+      <c r="E105" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>297</v>
+      </c>
+      <c r="C106" t="s">
+        <v>344</v>
+      </c>
+      <c r="D106" t="s">
+        <v>244</v>
+      </c>
+      <c r="E106" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C107" t="s">
+        <v>345</v>
+      </c>
+      <c r="D107" t="s">
+        <v>244</v>
+      </c>
+      <c r="E107" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C108" t="s">
+        <v>346</v>
+      </c>
+      <c r="D108" t="s">
+        <v>244</v>
+      </c>
+      <c r="E108" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>306</v>
+      </c>
+      <c r="C109" t="s">
+        <v>347</v>
+      </c>
+      <c r="D109" t="s">
+        <v>244</v>
+      </c>
+      <c r="E109" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>307</v>
+      </c>
+      <c r="C110" t="s">
+        <v>348</v>
+      </c>
+      <c r="D110" t="s">
+        <v>244</v>
+      </c>
+      <c r="E110" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>308</v>
+      </c>
+      <c r="C111" t="s">
+        <v>349</v>
+      </c>
+      <c r="D111" t="s">
+        <v>244</v>
+      </c>
+      <c r="E111" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>309</v>
+      </c>
+      <c r="C112" t="s">
+        <v>350</v>
+      </c>
+      <c r="D112" t="s">
+        <v>244</v>
+      </c>
+      <c r="E112" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>310</v>
+      </c>
+      <c r="C113" t="s">
+        <v>351</v>
+      </c>
+      <c r="D113" t="s">
+        <v>244</v>
+      </c>
+      <c r="E113" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>311</v>
+      </c>
+      <c r="C114" t="s">
+        <v>352</v>
+      </c>
+      <c r="D114" t="s">
+        <v>244</v>
+      </c>
+      <c r="E114" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Wilson Rides/Data Guide.xlsx
+++ b/Wilson Rides/Data Guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmccall\Documents\GIT\Aging-and-Disability\Wilson Rides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D9F498-69BB-4EBC-BDE0-C57160316C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E6961E-99DA-44AF-A171-98479EA7D0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0405D0AF-57D6-44C6-BB1C-249A29BD168C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0405D0AF-57D6-44C6-BB1C-249A29BD168C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="381">
   <si>
     <t>ID</t>
   </si>
@@ -1097,6 +1097,90 @@
   </si>
   <si>
     <t>geo_75+_movedabroad</t>
+  </si>
+  <si>
+    <t>Tenure Total Households Series</t>
+  </si>
+  <si>
+    <t>tenure_total_agehh_series</t>
+  </si>
+  <si>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>B25007_001E</t>
+  </si>
+  <si>
+    <t>Tenure Total Owner Occupied</t>
+  </si>
+  <si>
+    <t>tenure_allowneroccupied</t>
+  </si>
+  <si>
+    <t>B25007_002E</t>
+  </si>
+  <si>
+    <t>Tenure Owner Occupied 65 to 74</t>
+  </si>
+  <si>
+    <t>tenure_owner_65to74</t>
+  </si>
+  <si>
+    <t>B25007_009E</t>
+  </si>
+  <si>
+    <t>Tenure Owner Occupied 75 to 84</t>
+  </si>
+  <si>
+    <t>tenure_owner_75to84</t>
+  </si>
+  <si>
+    <t>B25007_010E</t>
+  </si>
+  <si>
+    <t>Tenure Owner Occupied 85+</t>
+  </si>
+  <si>
+    <t>tenure_owner_85+</t>
+  </si>
+  <si>
+    <t>B25007_011E</t>
+  </si>
+  <si>
+    <t>Tenure Total Renter Occupied</t>
+  </si>
+  <si>
+    <t>tenure_allrenteroccupied</t>
+  </si>
+  <si>
+    <t>B25007_012E</t>
+  </si>
+  <si>
+    <t>Tenure Renter Occupied 65 to 74</t>
+  </si>
+  <si>
+    <t>tenure_renter_65to74</t>
+  </si>
+  <si>
+    <t>B25007_019E</t>
+  </si>
+  <si>
+    <t>Tenure Renter Occupied 75 to 84</t>
+  </si>
+  <si>
+    <t>tenure_renter_75to84</t>
+  </si>
+  <si>
+    <t>B25007_020E</t>
+  </si>
+  <si>
+    <t>Tenure Renter Occupied 85+</t>
+  </si>
+  <si>
+    <t>tenure_renter_85+</t>
+  </si>
+  <si>
+    <t>B25007_021E</t>
   </si>
 </sst>
 </file>
@@ -1463,10 +1547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E928985-CBB8-499D-B847-9B7B73480E5B}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40:C60"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115:C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3416,6 +3500,159 @@
         <v>316</v>
       </c>
     </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>353</v>
+      </c>
+      <c r="C115" t="s">
+        <v>354</v>
+      </c>
+      <c r="D115" t="s">
+        <v>355</v>
+      </c>
+      <c r="E115" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>357</v>
+      </c>
+      <c r="C116" t="s">
+        <v>358</v>
+      </c>
+      <c r="D116" t="s">
+        <v>355</v>
+      </c>
+      <c r="E116" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>360</v>
+      </c>
+      <c r="C117" t="s">
+        <v>361</v>
+      </c>
+      <c r="D117" t="s">
+        <v>355</v>
+      </c>
+      <c r="E117" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>363</v>
+      </c>
+      <c r="C118" t="s">
+        <v>364</v>
+      </c>
+      <c r="D118" t="s">
+        <v>355</v>
+      </c>
+      <c r="E118" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>366</v>
+      </c>
+      <c r="C119" t="s">
+        <v>367</v>
+      </c>
+      <c r="D119" t="s">
+        <v>355</v>
+      </c>
+      <c r="E119" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>369</v>
+      </c>
+      <c r="C120" t="s">
+        <v>370</v>
+      </c>
+      <c r="D120" t="s">
+        <v>355</v>
+      </c>
+      <c r="E120" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>372</v>
+      </c>
+      <c r="C121" t="s">
+        <v>373</v>
+      </c>
+      <c r="D121" t="s">
+        <v>355</v>
+      </c>
+      <c r="E121" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>375</v>
+      </c>
+      <c r="C122" t="s">
+        <v>376</v>
+      </c>
+      <c r="D122" t="s">
+        <v>355</v>
+      </c>
+      <c r="E122" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>378</v>
+      </c>
+      <c r="C123" t="s">
+        <v>379</v>
+      </c>
+      <c r="D123" t="s">
+        <v>355</v>
+      </c>
+      <c r="E123" t="s">
+        <v>380</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Wilson Rides/Data Guide.xlsx
+++ b/Wilson Rides/Data Guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmccall\Documents\GIT\Aging-and-Disability\Wilson Rides\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E6961E-99DA-44AF-A171-98479EA7D0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D85BEE-81F6-4F48-8C47-D7A498CD5D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0405D0AF-57D6-44C6-BB1C-249A29BD168C}"/>
+    <workbookView xWindow="8430" yWindow="6750" windowWidth="14490" windowHeight="6120" xr2:uid="{0405D0AF-57D6-44C6-BB1C-249A29BD168C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="B10051_005E" localSheetId="0">Sheet1!$E$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
